--- a/results/validation.xlsx
+++ b/results/validation.xlsx
@@ -475,25 +475,25 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0.8187781877818778</v>
+        <v>0.8150881508815088</v>
       </c>
       <c r="C2" t="n">
-        <v>0.8417001503348367</v>
+        <v>0.8387481208145415</v>
       </c>
       <c r="D2" t="n">
-        <v>0.8402104687713544</v>
+        <v>0.8291212245455787</v>
       </c>
       <c r="E2" t="n">
-        <v>0.8409512095120952</v>
+        <v>0.8313461801284679</v>
       </c>
       <c r="F2" t="n">
-        <v>0.8424463577969113</v>
+        <v>0.8350498838321716</v>
       </c>
       <c r="G2" t="n">
-        <v>0.8557386907202404</v>
+        <v>0.8461336613366134</v>
       </c>
       <c r="H2" t="n">
-        <v>0.8098974989749896</v>
+        <v>0.8113953806204728</v>
       </c>
     </row>
     <row r="3">
@@ -501,25 +501,25 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>0.8091704250375837</v>
+        <v>0.815077217438841</v>
       </c>
       <c r="C3" t="n">
-        <v>0.834309143091431</v>
+        <v>0.8328194615279486</v>
       </c>
       <c r="D3" t="n">
-        <v>0.8342900095667624</v>
+        <v>0.8290993576602433</v>
       </c>
       <c r="E3" t="n">
-        <v>0.8379882465491322</v>
+        <v>0.8357687576875769</v>
       </c>
       <c r="F3" t="n">
-        <v>0.8372693726937269</v>
+        <v>0.8365204318709853</v>
       </c>
       <c r="G3" t="n">
-        <v>0.8513243132431324</v>
+        <v>0.857225638923056</v>
       </c>
       <c r="H3" t="n">
-        <v>0.8054831214978817</v>
+        <v>0.809156758234249</v>
       </c>
     </row>
     <row r="4">
@@ -527,25 +527,25 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>0.8246877135438021</v>
+        <v>0.8099056990569904</v>
       </c>
       <c r="C4" t="n">
-        <v>0.8402132021320213</v>
+        <v>0.835036217028837</v>
       </c>
       <c r="D4" t="n">
-        <v>0.8320623206232064</v>
+        <v>0.8291102911029109</v>
       </c>
       <c r="E4" t="n">
-        <v>0.8335574689080225</v>
+        <v>0.8313325133251332</v>
       </c>
       <c r="F4" t="n">
-        <v>0.8387344540112067</v>
+        <v>0.8335656689900232</v>
       </c>
       <c r="G4" t="n">
-        <v>0.8564657646576466</v>
+        <v>0.8513079130791308</v>
       </c>
       <c r="H4" t="n">
-        <v>0.8136012026786933</v>
+        <v>0.8047314473144731</v>
       </c>
     </row>
     <row r="5">
@@ -553,25 +553,25 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>0.8204045373787071</v>
+        <v>0.8137406040727073</v>
       </c>
       <c r="C5" t="n">
-        <v>0.8336886702200357</v>
+        <v>0.8388465217985512</v>
       </c>
       <c r="D5" t="n">
-        <v>0.8285253519201859</v>
+        <v>0.8255487221538882</v>
       </c>
       <c r="E5" t="n">
-        <v>0.8351728850621839</v>
+        <v>0.8336914035807025</v>
       </c>
       <c r="F5" t="n">
-        <v>0.8388656553232199</v>
+        <v>0.8403280032800329</v>
       </c>
       <c r="G5" t="n">
-        <v>0.8529041957086237</v>
+        <v>0.8499275659423262</v>
       </c>
       <c r="H5" t="n">
-        <v>0.8070903375700423</v>
+        <v>0.8100423670903376</v>
       </c>
     </row>
     <row r="6">
@@ -579,25 +579,25 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>0.8240781741150744</v>
+        <v>0.8174497744977451</v>
       </c>
       <c r="C6" t="n">
-        <v>0.8314473144731446</v>
+        <v>0.8396091294246275</v>
       </c>
       <c r="D6" t="n">
-        <v>0.832207188738554</v>
+        <v>0.8248435151018176</v>
       </c>
       <c r="E6" t="n">
-        <v>0.8373841738417385</v>
+        <v>0.830750307503075</v>
       </c>
       <c r="F6" t="n">
-        <v>0.8351510181768486</v>
+        <v>0.8425775591089243</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8514117807844744</v>
+        <v>0.8536586032526993</v>
       </c>
       <c r="H6" t="n">
-        <v>0.8063441301079678</v>
+        <v>0.8122700560338936</v>
       </c>
     </row>
     <row r="7">
@@ -605,25 +605,25 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>0.8226103594369277</v>
+        <v>0.807836545032117</v>
       </c>
       <c r="C7" t="n">
-        <v>0.8388465217985515</v>
+        <v>0.8336886702200357</v>
       </c>
       <c r="D7" t="n">
-        <v>0.8351646849801831</v>
+        <v>0.8277846111794451</v>
       </c>
       <c r="E7" t="n">
-        <v>0.8359026923602568</v>
+        <v>0.8396036627032937</v>
       </c>
       <c r="F7" t="n">
-        <v>0.8381139811398114</v>
+        <v>0.8366434331009976</v>
       </c>
       <c r="G7" t="n">
-        <v>0.8528877955446221</v>
+        <v>0.8521689216892169</v>
       </c>
       <c r="H7" t="n">
-        <v>0.8093098264315977</v>
+        <v>0.8115265819324859</v>
       </c>
     </row>
     <row r="8">
@@ -631,25 +631,25 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>0.8233483668170015</v>
+        <v>0.8226103594369277</v>
       </c>
       <c r="C8" t="n">
-        <v>0.8336804701380348</v>
+        <v>0.8329424627579609</v>
       </c>
       <c r="D8" t="n">
-        <v>0.827787344540112</v>
+        <v>0.8418067514008474</v>
       </c>
       <c r="E8" t="n">
-        <v>0.828519885198852</v>
+        <v>0.8440262402624026</v>
       </c>
       <c r="F8" t="n">
-        <v>0.8366379663796637</v>
+        <v>0.8410714773814405</v>
       </c>
       <c r="G8" t="n">
-        <v>0.8573377067104004</v>
+        <v>0.8529014623479568</v>
       </c>
       <c r="H8" t="n">
-        <v>0.8093070930709306</v>
+        <v>0.8100478338116714</v>
       </c>
     </row>
     <row r="9">
@@ -657,25 +657,25 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>0.8130135301353013</v>
+        <v>0.8122755227552275</v>
       </c>
       <c r="C9" t="n">
-        <v>0.8395954626212928</v>
+        <v>0.8359026923602568</v>
       </c>
       <c r="D9" t="n">
-        <v>0.8233401667350007</v>
+        <v>0.8344348776821102</v>
       </c>
       <c r="E9" t="n">
-        <v>0.8299876998769987</v>
+        <v>0.841823151564849</v>
       </c>
       <c r="F9" t="n">
-        <v>0.8388574552412191</v>
+        <v>0.834437611042777</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8514199808664754</v>
+        <v>0.8484761514281809</v>
       </c>
       <c r="H9" t="n">
-        <v>0.8100396337296706</v>
+        <v>0.8004428044280443</v>
       </c>
     </row>
     <row r="10">
@@ -683,25 +683,25 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>0.8129889298892989</v>
+        <v>0.8181604482711494</v>
       </c>
       <c r="C10" t="n">
-        <v>0.8285007516741834</v>
+        <v>0.8351482848161815</v>
       </c>
       <c r="D10" t="n">
-        <v>0.8255514555145551</v>
+        <v>0.8366324996583299</v>
       </c>
       <c r="E10" t="n">
-        <v>0.8314664479978132</v>
+        <v>0.8381112477791444</v>
       </c>
       <c r="F10" t="n">
-        <v>0.8336777367773678</v>
+        <v>0.8344048107147739</v>
       </c>
       <c r="G10" t="n">
-        <v>0.8462347956812902</v>
+        <v>0.8558343583435836</v>
       </c>
       <c r="H10" t="n">
-        <v>0.8041191745250785</v>
+        <v>0.8092770261035943</v>
       </c>
     </row>
     <row r="11">
@@ -709,25 +709,25 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>0.8167145004783383</v>
+        <v>0.8167008336750033</v>
       </c>
       <c r="C11" t="n">
-        <v>0.8299794997949981</v>
+        <v>0.832207188738554</v>
       </c>
       <c r="D11" t="n">
-        <v>0.8299931665983327</v>
+        <v>0.8314773814404811</v>
       </c>
       <c r="E11" t="n">
-        <v>0.832209922099221</v>
+        <v>0.8322153888205548</v>
       </c>
       <c r="F11" t="n">
-        <v>0.8322017220172201</v>
+        <v>0.83589995899959</v>
       </c>
       <c r="G11" t="n">
-        <v>0.8506765067650676</v>
+        <v>0.8521689216892169</v>
       </c>
       <c r="H11" t="n">
-        <v>0.7982178488451552</v>
+        <v>0.8048763154298209</v>
       </c>
     </row>
   </sheetData>
